--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:18:11+00:00</t>
+    <t>2024-10-11T14:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:28:17+00:00</t>
+    <t>2024-10-11T14:48:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:48:45+00:00</t>
+    <t>2024-10-12T09:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-12T09:26:25+00:00</t>
+    <t>2024-10-29T10:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-29T10:53:15+00:00</t>
+    <t>2024-11-06T13:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T13:23:16+00:00</t>
+    <t>2024-11-07T08:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:33:26+00:00</t>
+    <t>2024-11-07T08:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:46:41+00:00</t>
+    <t>2024-11-13T08:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:40:33+00:00</t>
+    <t>2024-11-13T08:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2026,8 +2026,8 @@
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
+    <t>pattern:system}
+exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -3275,7 +3275,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="107.80859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="89.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:49:07+00:00</t>
+    <t>2024-11-13T08:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:59:38+00:00</t>
+    <t>2024-11-13T09:09:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:09:03+00:00</t>
+    <t>2024-11-13T09:11:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:11:42+00:00</t>
+    <t>2024-11-13T09:14:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:14:39+00:00</t>
+    <t>2024-11-13T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-dr-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:36:20+00:00</t>
+    <t>2024-11-13T09:52:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
